--- a/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DTAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DTAfterMinutes_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="89">
   <si>
     <t>ModuleName</t>
   </si>
@@ -261,13 +261,34 @@
     <t>ET387</t>
   </si>
   <si>
-    <t>25-05-2024</t>
-  </si>
-  <si>
-    <t>28-04-2024 05:00:00 PM</t>
-  </si>
-  <si>
     <t>05:00:00 PM</t>
+  </si>
+  <si>
+    <t>27-05-2024</t>
+  </si>
+  <si>
+    <t>30-05-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>30-05-2024 06:00:00 PM</t>
+  </si>
+  <si>
+    <t>06:00:00 PM</t>
+  </si>
+  <si>
+    <t>07:00:00 PM</t>
+  </si>
+  <si>
+    <t>08:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET406</t>
+  </si>
+  <si>
+    <t>30-05-2024 07:00:00 PM</t>
+  </si>
+  <si>
+    <t>30-05-2024 08:00:00 PM</t>
   </si>
 </sst>
 </file>
@@ -626,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="AA1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -813,7 +834,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -822,10 +843,10 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -872,8 +893,8 @@
       <c r="AF2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>78</v>
+      <c r="AG2" t="s" s="1">
+        <v>86</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
@@ -901,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1068,11 +1089,20 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="K2" t="s" s="0">
+        <v>80</v>
+      </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1125,7 +1155,7 @@
         <v>68</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>73</v>
@@ -1147,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1304,11 +1334,20 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="K2" t="s" s="0">
+        <v>80</v>
+      </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>84</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1361,7 +1400,7 @@
         <v>69</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>73</v>
@@ -1386,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1571,11 +1610,20 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="K2" t="s" s="0">
+        <v>80</v>
+      </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>85</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1628,7 +1676,7 @@
         <v>69</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>73</v>

--- a/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DTAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DTAfterMinutes_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="88">
   <si>
     <t>ModuleName</t>
   </si>
@@ -249,18 +249,12 @@
     <t>Every time the record is save</t>
   </si>
   <si>
-    <t>tskNT_ExecuteTask_DTAfterMinutes</t>
-  </si>
-  <si>
     <t>wf_ET_ETRS_Notifications</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>ET387</t>
-  </si>
-  <si>
     <t>05:00:00 PM</t>
   </si>
   <si>
@@ -289,13 +283,15 @@
   </si>
   <si>
     <t>30-05-2024 08:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET_DTAfterMinutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -647,49 +643,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="12.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="23.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="11.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.54296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="18.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.0"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="15.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.7265625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="21.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="11.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="10.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="12.90625"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="22.0"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="7.36328125"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.6328125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="7.453125"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="17.26953125"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="18.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="14.90625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="30.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="11.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="18.36328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="18.26953125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="11.6328125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="11.81640625"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="19.26953125"/>
-    <col min="37" max="16384" style="1" width="9.1796875"/>
+    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -807,7 +803,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -833,8 +829,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="1">
-        <v>80</v>
+      <c r="K2" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -842,11 +838,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="1">
-        <v>81</v>
-      </c>
-      <c r="O2" t="s" s="1">
+      <c r="N2" s="1" t="s">
         <v>79</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -882,7 +878,7 @@
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -893,8 +889,8 @@
       <c r="AF2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" t="s" s="1">
-        <v>86</v>
+      <c r="AG2" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
@@ -905,8 +901,8 @@
       <c r="AJ2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AK2" t="s" s="1">
-        <v>77</v>
+      <c r="AK2" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -923,29 +919,29 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AH10" sqref="AH10"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" customWidth="true" width="21.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1063,7 +1059,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1089,8 +1085,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>80</v>
+      <c r="K2" t="s">
+        <v>78</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1098,11 +1094,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>83</v>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s">
+        <v>81</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1138,7 +1134,7 @@
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1151,7 +1147,7 @@
       <c r="AF2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" t="s" s="0">
+      <c r="AG2" t="s">
         <v>68</v>
       </c>
       <c r="AH2" s="7">
@@ -1178,19 +1174,19 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -1308,7 +1304,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1334,8 +1330,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>80</v>
+      <c r="K2" t="s">
+        <v>78</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1343,11 +1339,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>84</v>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s">
+        <v>82</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1383,7 +1379,7 @@
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1396,7 +1392,7 @@
       <c r="AF2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" t="s" s="0">
+      <c r="AG2" t="s">
         <v>69</v>
       </c>
       <c r="AH2" s="7">
@@ -1425,48 +1421,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.36328125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="6.7265625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.7265625"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="28.81640625"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="9.6328125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="7.453125"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="17.26953125"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="18.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="35.08984375"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="18.26953125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.6328125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="19.26953125"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="35.08984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1584,7 +1580,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1610,8 +1606,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>80</v>
+      <c r="K2" t="s">
+        <v>78</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1619,11 +1615,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>85</v>
+      <c r="N2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" t="s">
+        <v>83</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1659,7 +1655,7 @@
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1672,7 +1668,7 @@
       <c r="AF2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" t="s" s="0">
+      <c r="AG2" t="s">
         <v>69</v>
       </c>
       <c r="AH2" s="7">

--- a/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DTAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DTAfterMinutes_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="93">
   <si>
     <t>ModuleName</t>
   </si>
@@ -255,43 +255,59 @@
     <t>1</t>
   </si>
   <si>
-    <t>05:00:00 PM</t>
-  </si>
-  <si>
-    <t>27-05-2024</t>
-  </si>
-  <si>
-    <t>30-05-2024 05:00:00 PM</t>
-  </si>
-  <si>
-    <t>30-05-2024 06:00:00 PM</t>
-  </si>
-  <si>
-    <t>06:00:00 PM</t>
-  </si>
-  <si>
-    <t>07:00:00 PM</t>
-  </si>
-  <si>
-    <t>08:00:00 PM</t>
-  </si>
-  <si>
     <t>ET406</t>
   </si>
   <si>
-    <t>30-05-2024 07:00:00 PM</t>
-  </si>
-  <si>
-    <t>30-05-2024 08:00:00 PM</t>
-  </si>
-  <si>
     <t>ET_DTAfterMinutes</t>
+  </si>
+  <si>
+    <t>10:00:00 PM</t>
+  </si>
+  <si>
+    <t>23-07-2024</t>
+  </si>
+  <si>
+    <t>26-07-2024 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>10:00:00PM</t>
+  </si>
+  <si>
+    <t>ET2787</t>
+  </si>
+  <si>
+    <t>24-07-2024</t>
+  </si>
+  <si>
+    <t>27-07-2024 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET2805</t>
+  </si>
+  <si>
+    <t>31-07-2024</t>
+  </si>
+  <si>
+    <t>03-08-2024 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET2901</t>
+  </si>
+  <si>
+    <t>01-08-2024</t>
+  </si>
+  <si>
+    <t>04-08-2024 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET2904</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,49 +659,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="12.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="23.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="11.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="18.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="15.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.7265625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="21.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="11.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="10.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="12.90625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="22.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="7.36328125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.6328125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="7.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="17.26953125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="18.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="14.90625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="30.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="11.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="18.36328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="18.26953125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="11.6328125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="11.81640625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="19.26953125"/>
+    <col min="37" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -829,8 +845,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>78</v>
+      <c r="K2" t="s" s="1">
+        <v>90</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -838,11 +854,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>77</v>
+      <c r="N2" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>82</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -878,7 +894,7 @@
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -889,11 +905,11 @@
       <c r="AF2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>84</v>
+      <c r="AG2" t="s" s="1">
+        <v>92</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>73</v>
@@ -901,7 +917,7 @@
       <c r="AJ2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" t="s" s="1">
         <v>76</v>
       </c>
     </row>
@@ -918,30 +934,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1085,8 +1101,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>78</v>
+      <c r="K2" t="s" s="0">
+        <v>90</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1094,11 +1110,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" t="s">
-        <v>81</v>
+      <c r="N2" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>82</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1134,7 +1150,7 @@
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1147,11 +1163,11 @@
       <c r="AF2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>68</v>
       </c>
       <c r="AH2" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>73</v>
@@ -1174,19 +1190,19 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+      <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -1330,8 +1346,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>78</v>
+      <c r="K2" t="s" s="0">
+        <v>90</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1339,10 +1355,10 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>82</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1379,7 +1395,7 @@
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1392,11 +1408,11 @@
       <c r="AF2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>69</v>
       </c>
       <c r="AH2" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>73</v>
@@ -1421,48 +1437,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="35.08984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.36328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="6.7265625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.7265625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="28.81640625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="17.26953125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="35.08984375"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.26953125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="19.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1606,8 +1622,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>78</v>
+      <c r="K2" t="s" s="0">
+        <v>90</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1615,11 +1631,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" t="s">
-        <v>83</v>
+      <c r="N2" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>82</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1655,7 +1671,7 @@
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1668,11 +1684,11 @@
       <c r="AF2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>69</v>
       </c>
       <c r="AH2" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>73</v>
